--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3259850.549417222</v>
+        <v>3252833.534525511</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>179.9269603489844</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>34.60269854636939</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>155.9407888106548</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>36.09410280773614</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.9608410339008</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>279.5106614771179</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>154.2036609373059</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>1.332975795529264</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110.2505781800127</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274157</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>91.73458974969034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052004</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>134.1113616933142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>56.27789413055165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.25307783771848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>86.47617960322242</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056521</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>20.82998177290681</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056522</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>191.6534898356761</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113201</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>49.21182350370189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560559</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>207.5428010623605</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2289.351746278601</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2662.196870264314</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2486.019382578484</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.384715550547</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.384715550547</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1936.321828206976</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1583.553172936862</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="Y2" t="n">
-        <v>2289.351746278601</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="3">
@@ -4427,25 +4427,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.1154545468208</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1374.814428194113</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1374.814428194113</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1374.814428194113</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>989.0261755958691</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519315</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X5" t="n">
-        <v>1761.414268258235</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1761.414268258235</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>262.1862143682814</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1452.061221751178</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>1083.098704810766</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1083.098704810766</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>697.3104522125218</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>690.3649514633183</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>2695.802650820718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.661061815299</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.423641878219</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>484.423641878219</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>334.3070024658832</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>334.3070024658832</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>334.3070024658832</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>165.3072022042156</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>165.3072022042156</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805478</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382247</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643587</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>677.4616523829102</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1295.179965352364</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1295.179965352364</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1295.179965352364</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1295.179965352364</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1295.179965352364</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.190414454347</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>846.3978353108171</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,22 +5278,22 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>692.753134944335</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028589</v>
@@ -5442,7 +5442,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.867621687013</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.4015997745747</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147082</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619851</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
         <v>1808.163466324677</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>993.2877828087276</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>824.3515998808207</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028589</v>
@@ -5679,7 +5679,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1442.069912850275</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1442.069912850275</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1214.080361952258</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>993.2877828087276</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5776,28 +5776,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110079</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>644.6755122555206</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.921157035281</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.921157035281</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.921157035281</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1187.921157035281</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610194</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003444</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155918</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="24">
@@ -6056,25 +6056,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352.7420895073566</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V25" t="n">
-        <v>755.1831334811264</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W25" t="n">
-        <v>755.1831334811264</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X25" t="n">
-        <v>755.1831334811264</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>534.3905543375963</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6217,40 +6217,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126483</v>
@@ -6311,7 +6311,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V28" t="n">
-        <v>731.31772835508</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181194</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636254</v>
+        <v>796.3635653766206</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.6754855415414</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>268.6754855415414</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>268.6754855415414</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>268.6754855415414</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>268.6754855415414</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
@@ -6657,16 +6657,16 @@
         <v>786.0822064765193</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765193</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W31" t="n">
-        <v>496.6650364395587</v>
+        <v>241.9805482336719</v>
       </c>
       <c r="X31" t="n">
-        <v>268.6754855415414</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>268.6754855415414</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688073</v>
@@ -6867,7 +6867,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1305.326886885503</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1305.326886885503</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1016.198248099061</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>761.5137598931742</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>472.0965898562135</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822487</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,10 +6949,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845924</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1818.397748747284</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2338.698370483032</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
@@ -7104,7 +7104,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7125,22 +7125,22 @@
         <v>1382.222354598087</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387593</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011508</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155913</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514086</v>
@@ -7183,13 +7183,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126483</v>
@@ -7259,22 +7259,22 @@
         <v>412.6079778147083</v>
       </c>
       <c r="L39" t="n">
-        <v>880.8106280646848</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1188.130761344647</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683722</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404653</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I40" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
@@ -7341,7 +7341,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655744</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286139</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286139</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.977060898612</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7435,25 +7435,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341678</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.91112712663</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3628.091576844584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380587</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625199</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636328</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403511</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042139</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014295</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014295</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014295</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4637.0691578038</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>4347.940519017358</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>4347.940519017358</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W43" t="n">
-        <v>4058.523348980398</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X43" t="n">
-        <v>3848.884155988114</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y43" t="n">
-        <v>3628.091576844584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,31 +7639,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126484</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571612</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636255</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
@@ -7742,13 +7742,13 @@
         <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526318</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7763,7 +7763,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7839,19 +7839,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011508</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583033</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229573</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>234.411650950316</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814591</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9266,7 +9266,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928322</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814577</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>96.03744927814569</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208054</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928312</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208054</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
-        <v>199.7396287231141</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298287</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>223.6742649934467</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>392.1113620226427</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298284</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165105</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208051</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>106.1862202339129</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.4732916587806</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>195.8597491932763</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>172.3315755143763</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>80.77064149540541</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.30500338171929</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>145.6635866904708</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>6.267320147927137</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>169.3728298483929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>18.16685432667663</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>730532.698480193</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801933</v>
+        <v>730532.6984801932</v>
       </c>
     </row>
     <row r="16">
@@ -26316,28 +26316,28 @@
         <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.460138033</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672197</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672194</v>
       </c>
       <c r="G2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="H2" t="n">
+        <v>645197.9485672193</v>
+      </c>
+      <c r="I2" t="n">
         <v>645197.9485672194</v>
       </c>
-      <c r="I2" t="n">
-        <v>645197.9485672195</v>
-      </c>
       <c r="J2" t="n">
-        <v>645197.9485672191</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="K2" t="n">
         <v>645197.9485672194</v>
@@ -26346,16 +26346,16 @@
         <v>645197.9485672194</v>
       </c>
       <c r="M2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672193</v>
+        <v>645197.9485672192</v>
       </c>
       <c r="O2" t="n">
         <v>645197.9485672192</v>
       </c>
       <c r="P2" t="n">
-        <v>645197.9485672195</v>
+        <v>645197.9485672192</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007447</v>
+        <v>7916.731656007424</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007412</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007414</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.73165600741</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007409</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.73165600742</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007408</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="L4" t="n">
         <v>7916.73165600748</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007372</v>
+        <v>7916.731656007413</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007372</v>
+        <v>7916.731656007443</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007381</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007481</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871667</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871668</v>
-      </c>
       <c r="O5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871671</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-143384.5458558413</v>
       </c>
       <c r="C6" t="n">
+        <v>446583.3333587028</v>
+      </c>
+      <c r="D6" t="n">
         <v>446583.3333587031</v>
       </c>
-      <c r="D6" t="n">
-        <v>446583.333358703</v>
-      </c>
       <c r="E6" t="n">
-        <v>20133.85448559932</v>
+        <v>19159.2632258772</v>
       </c>
       <c r="F6" t="n">
-        <v>545293.8909624952</v>
+        <v>544319.2997027736</v>
       </c>
       <c r="G6" t="n">
-        <v>545293.8909624955</v>
+        <v>544319.2997027736</v>
       </c>
       <c r="H6" t="n">
-        <v>545293.8909624955</v>
+        <v>544319.2997027736</v>
       </c>
       <c r="I6" t="n">
-        <v>545293.8909624955</v>
+        <v>544319.2997027736</v>
       </c>
       <c r="J6" t="n">
-        <v>368870.671769902</v>
+        <v>367896.0805101808</v>
       </c>
       <c r="K6" t="n">
-        <v>545293.8909624952</v>
+        <v>544319.2997027737</v>
       </c>
       <c r="L6" t="n">
-        <v>545293.8909624954</v>
+        <v>544319.2997027737</v>
       </c>
       <c r="M6" t="n">
-        <v>410492.875728658</v>
+        <v>409518.2844689363</v>
       </c>
       <c r="N6" t="n">
-        <v>545293.8909624952</v>
+        <v>544319.2997027733</v>
       </c>
       <c r="O6" t="n">
-        <v>545293.8909624951</v>
+        <v>544319.2997027733</v>
       </c>
       <c r="P6" t="n">
-        <v>545293.8909624954</v>
+        <v>544319.2997027736</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253574</v>
@@ -26807,16 +26807,16 @@
         <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1215.213643253574</v>
+      </c>
+      <c r="J4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1215.213643253573</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1215.213643253574</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26831,7 +26831,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3459314220231</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>19.87570402844231</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>11.30603228797304</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>370.7819429339753</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>23.98522015752656</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>6.348961225150134</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>7.012336859473123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>259.5805090834891</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>53.14542677928245</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>24.71504361232557</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-9.557207257475868e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.183094401190819e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.040985854038799e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-2.444267011014745e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.092589102963747e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30528,7 +30528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>-2.250999386887997e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33420,16 +33420,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927188</v>
@@ -33438,19 +33438,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
         <v>0.2670576580354894</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33505,19 +33505,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33526,13 +33526,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33590,19 +33590,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336902</v>
@@ -33611,7 +33611,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,16 +33657,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927188</v>
@@ -33675,19 +33675,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
         <v>0.2670576580354894</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
@@ -33742,19 +33742,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
@@ -33763,13 +33763,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33827,19 +33827,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336902</v>
@@ -33848,7 +33848,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,16 +33894,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927188</v>
@@ -33912,19 +33912,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
         <v>0.2670576580354894</v>
@@ -33970,7 +33970,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
@@ -33979,19 +33979,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710957</v>
@@ -34000,13 +34000,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,19 +34064,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336902</v>
@@ -34085,7 +34085,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,16 +34131,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927188</v>
@@ -34149,19 +34149,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
         <v>0.2670576580354894</v>
@@ -34207,7 +34207,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
@@ -34216,19 +34216,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710957</v>
@@ -34237,13 +34237,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,19 +34301,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336902</v>
@@ -34322,7 +34322,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34368,16 +34368,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927188</v>
@@ -34386,19 +34386,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
         <v>0.2670576580354894</v>
@@ -34444,7 +34444,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
@@ -34453,19 +34453,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710957</v>
@@ -34474,13 +34474,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34538,19 +34538,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336902</v>
@@ -34559,7 +34559,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005179</v>
@@ -35500,16 +35500,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734237</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>483.6693559063403</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192542</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330525</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,19 +36761,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303332</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005179</v>
@@ -36922,19 +36922,19 @@
         <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>429.2320226761587</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523302</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081121</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980131</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523302</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37238,16 +37238,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081121</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980131</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>525.556183571462</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>287.7526615081883</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37475,16 +37475,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081121</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>472.9319699494712</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>702.5357390731091</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980131</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37712,16 +37712,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081121</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145236</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37949,16 +37949,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081121</v>
@@ -38037,10 +38037,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,10 +38101,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980131</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>484.76521155233</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38186,16 +38186,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3252833.534525511</v>
+        <v>3257772.797374544</v>
       </c>
     </row>
     <row r="7">
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>155.9407888106548</v>
+        <v>155.9407888106546</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.332975795529264</v>
+        <v>1.332975795528814</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784703</v>
+        <v>369.7311006784709</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052004</v>
+        <v>132.9503648051995</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056521</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056522</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634828</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056519</v>
+        <v>122.6519788371604</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.1154545468208</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468208</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="U4" t="n">
-        <v>257.1154545468208</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="V4" t="n">
-        <v>257.1154545468208</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="W4" t="n">
-        <v>257.1154545468208</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="X4" t="n">
-        <v>257.1154545468208</v>
+        <v>257.1154545468206</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.1154545468208</v>
+        <v>257.1154545468206</v>
       </c>
     </row>
     <row r="5">
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4798,25 +4798,25 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207831</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5275,34 +5275,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5354,13 +5354,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L15" t="n">
         <v>534.5429807341677</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155918</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.881333182379</v>
@@ -5998,43 +5998,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6180,13 +6180,13 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028589</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6411,19 +6411,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765193</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706325</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336719</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6457,7 +6457,7 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6940,19 +6940,19 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -7122,19 +7122,19 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028589</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7204,22 +7204,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7359,10 +7359,10 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011507</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765191</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706323</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336716</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028589</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>82.39383318338523</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338525</v>
+        <v>103.0576765518768</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>730532.6984801932</v>
+        <v>730532.6984801933</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
         <v>677359.460138033</v>
@@ -26322,7 +26322,7 @@
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="F2" t="n">
         <v>645197.9485672194</v>
@@ -26334,7 +26334,7 @@
         <v>645197.9485672193</v>
       </c>
       <c r="I2" t="n">
-        <v>645197.9485672194</v>
+        <v>645197.9485672195</v>
       </c>
       <c r="J2" t="n">
         <v>645197.9485672194</v>
@@ -26349,7 +26349,7 @@
         <v>645197.9485672194</v>
       </c>
       <c r="N2" t="n">
-        <v>645197.9485672192</v>
+        <v>645197.9485672193</v>
       </c>
       <c r="O2" t="n">
         <v>645197.9485672192</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007424</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007412</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007414</v>
@@ -26453,7 +26453,7 @@
         <v>7916.731656007413</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007443</v>
+        <v>7916.731656007381</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007481</v>
@@ -26481,7 +26481,7 @@
         <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871667</v>
@@ -26505,10 +26505,10 @@
         <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26530,40 +26530,40 @@
         <v>446583.3333587031</v>
       </c>
       <c r="E6" t="n">
-        <v>19159.2632258772</v>
+        <v>20036.39535962671</v>
       </c>
       <c r="F6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="G6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="H6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.4318365231</v>
       </c>
       <c r="I6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="J6" t="n">
-        <v>367896.0805101808</v>
+        <v>368773.2126439303</v>
       </c>
       <c r="K6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="L6" t="n">
-        <v>544319.2997027737</v>
+        <v>545196.4318365232</v>
       </c>
       <c r="M6" t="n">
-        <v>409518.2844689363</v>
+        <v>410395.4166026858</v>
       </c>
       <c r="N6" t="n">
-        <v>544319.2997027733</v>
+        <v>545196.4318365233</v>
       </c>
       <c r="O6" t="n">
-        <v>544319.2997027733</v>
+        <v>545196.431836523</v>
       </c>
       <c r="P6" t="n">
-        <v>544319.2997027736</v>
+        <v>545196.431836523</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253574</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.134664854552872e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990185</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>19.87570402844231</v>
+        <v>19.87570402844232</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>11.30603228797304</v>
+        <v>11.30603228797324</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>53.14542677928245</v>
+        <v>53.14542677928291</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-9.557207257475868e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>-2.194724402215797e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-8.134664854552872e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
